--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,7 +1350,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TASK_CONTENTID </t>
+    <t> &lt;SWH/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;CH/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;CZ/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;ZMLM/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;DZM/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;PM/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;FZM/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> &lt;JSL/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1361,7 +1390,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对应</t>
+      <t>确报</t>
     </r>
     <r>
       <rPr>
@@ -1370,7 +1399,83 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Task</t>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB TEXT</t>
+  </si>
+  <si>
+    <t>CH TEXT,</t>
+  </si>
+  <si>
+    <t>CZ TEXT,</t>
+  </si>
+  <si>
+    <t>YZ TEXT,</t>
+  </si>
+  <si>
+    <t>ZMLM TEXT,</t>
+  </si>
+  <si>
+    <t>ZAIZ TEXT,</t>
+  </si>
+  <si>
+    <t>DZM TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM TEXT, </t>
+  </si>
+  <si>
+    <t>SHR TEXT,</t>
+  </si>
+  <si>
+    <t>FZM TEXT,</t>
+  </si>
+  <si>
+    <t>JSL TEXT,</t>
+  </si>
+  <si>
+    <t>QBID TEXT,</t>
+  </si>
+  <si>
+    <t>HJ_ZSJ TEXT,</t>
+  </si>
+  <si>
+    <t>HJ_YSJ TEXT,</t>
+  </si>
+  <si>
+    <t>LSSJ TEXT,</t>
+  </si>
+  <si>
+    <t>HJZYSX TEXT,</t>
+  </si>
+  <si>
+    <t>LJZYSX TEXT</t>
+  </si>
+  <si>
+    <t>FLAG_UP TEXT,</t>
+  </si>
+  <si>
+    <t>ZXSJ TEXT,</t>
+  </si>
+  <si>
+    <t>USERDM TEXT,</t>
+  </si>
+  <si>
+    <t>PK TEXT,</t>
+  </si>
+  <si>
+    <t>SWH NUMERIC,</t>
+  </si>
+  <si>
+    <t>TASK_MESSAGEID TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TASK_MESSAGEID </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1485,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -1389,40 +1494,37 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>contentID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;SWH/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;CH/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;CZ/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;ZMLM/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;DZM/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;PM/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;FZM/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> &lt;JSL/&gt;</t>
+      <t>Task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Task_Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的对应关心</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,18 +1694,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1652,6 +1748,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2015,131 +2120,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="18"/>
+      <c r="I1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>66</v>
       </c>
       <c r="G3"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>85</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
       </c>
       <c r="G4"/>
-      <c r="H4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F5" t="s">
@@ -2148,27 +2259,30 @@
       <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F6" t="s">
@@ -2177,75 +2291,85 @@
       <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
       </c>
       <c r="G7"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>75</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>72</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E9"/>
@@ -2253,182 +2377,249 @@
         <v>41</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>76</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="I13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="I15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="11" t="s">
+      <c r="I17" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="11" t="s">
+      <c r="I18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="H20" s="18" t="s">
+      <c r="I19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="H20" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="H21" s="18" t="s">
+      <c r="I20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="H21" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="I22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>96</v>
+      <c r="I21" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="20"/>
+      <c r="I22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="I23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="I24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="I25" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D23:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,80 +2642,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:12">
-      <c r="D3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="D3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="4:12">
-      <c r="D4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="4:12">
-      <c r="D5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="4:12">
-      <c r="D6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="4:12">
-      <c r="D7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="4:12">
-      <c r="D8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="4:12">
-      <c r="D10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="4:12">
-      <c r="D14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1749,14 +1749,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2141,18 +2141,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
@@ -2586,30 +2586,30 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="I22" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="20"/>
       <c r="I23" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="I24" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="I25" s="1" t="s">
         <v>123</v>
       </c>

--- a/db.xlsx
+++ b/db.xlsx
@@ -2122,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
